--- a/db/config.xlsx
+++ b/db/config.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10414"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10512"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/bassim/code/datannuaire/datannuaire_dev/db/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9EA23297-9CC8-414C-B6A4-47EEB76923B9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{651A400F-EC5E-BA43-95A0-B8D677E49236}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="3220" yWindow="500" windowWidth="25580" windowHeight="17500" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -653,10 +653,10 @@
   <dimension ref="A1:B18"/>
   <sheetViews>
     <sheetView tabSelected="1" showRuler="0" zoomScale="125" zoomScaleNormal="130" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B9" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="B19" sqref="B19"/>
+      <selection pane="bottomRight" activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
